--- a/orders_status.xlsx
+++ b/orders_status.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Accepted for transportation by postal service</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Handed over to line-haul</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Leaving from departure country/region</t>
         </is>
       </c>
     </row>

--- a/orders_status.xlsx
+++ b/orders_status.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CNUSUP00003994120</t>
+          <t>LP00676202885460</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8192146329897491</t>
+          <t>8192700828977491</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CNUSUP00003994120</t>
+          <t>LP00676884483838</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8192146329877491</t>
+          <t>8192700829017491</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CNUSUP00003994120</t>
+          <t>LP00676203095097</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8192146329857491</t>
+          <t>8192700829237491</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CNUSUP00003994120</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8192146329757491</t>
+          <t>8192700829477491</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CNUSUP00003994120</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8192146329737491</t>
+          <t>8192700829197491</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CNUSUP00003994120</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8192146329717491</t>
+          <t>8192700829317491</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Arrived at line-haul office</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CNUSUP00004010899</t>
+          <t>LP00676886432209</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8192146329777491</t>
+          <t>8192700829297491</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CNUSUP00004010899</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8192146329797491</t>
+          <t>8192700829217491</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CNUSUP00004010899</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8192146329817491</t>
+          <t>8192700829117491</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Left from departure country/region sorting center</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CNUSUP00004010899</t>
+          <t>LP00676203101060</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8192146329837491</t>
+          <t>8192700829037491</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,577 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CNUSUP00004010899</t>
+          <t>LP00676202584973</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8192146329697491</t>
+          <t>8192700829277491</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>420331729212490362719154064883</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8192700829077491</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Left from departure country/region sorting center</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LP00676205987122</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8192700829457491</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LP00677550300051</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8192700829157491</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LP00676881021592</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8192700828997491</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LP00676203592176</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8192700829497491</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LP00677549521239</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>8192700828847491</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LP00676882233107</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>8192700829437491</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>420331729212490362719154064883</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8192700828927491</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Left from departure country/region sorting center</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>420331729212490362719154064883</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8192700828927491</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Left from departure country/region sorting center</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>420331729212490362719154064883</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>8192700829397491</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Left from departure country/region sorting center</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LP00676202885459</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8192700828957491</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LP00676206395305</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>8192700829517491</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>420331729212490362719154064883</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>8192700829057491</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Left from departure country/region sorting center</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>420331729212490362719154064883</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8192700829177491</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Left from departure country/region sorting center</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>420331729212490362719154064883</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8192700829417491</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Left from departure country/region sorting center</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>LP00676885173865</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>8192700828807491</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LP00677553384483</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>8192700829337491</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>No tracking number</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8192700828887491</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No tracking status</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LP00676202351844</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>8192700829377491</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>LP00676202351844</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>8192700829377491</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>420331729212490362719154028359</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8192700829137491</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Leaving from departure country/region</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>420331729212490362719154064883</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>8192700829357491</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Left from departure country/region sorting center</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>420331729212490362719154064883</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8192700828867491</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Left from departure country/region sorting center</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>420331729212490362719154064883</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8192700829097491</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Left from departure country/region sorting center</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>420331729212490362719154064883</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>8192700829537491</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Left from departure country/region sorting center</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>420331729212490362719154064883</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>8192700829257491</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Left from departure country/region sorting center</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>LP00676885772985</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>8192700828907491</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>LP00676202608950</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>8192700828827491</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Received by consolidation warehouse</t>
         </is>
       </c>
     </row>

--- a/orders_status.xlsx
+++ b/orders_status.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LP00676202885460</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LP00676884483838</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LP00676203095097</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LP00676886432209</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LP00676203101060</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LP00676202584973</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LP00676205987122</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LP00677550300051</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LP00676881021592</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LP00676203592176</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LP00677549521239</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LP00676882233107</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LP00676202885459</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LP00676206395305</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LP00676885173865</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LP00677553384483</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>No tracking number</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8192700828887491</t>
+          <t>8192700829377491</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>No tracking status</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LP00676202351844</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LP00676202351844</t>
+          <t>420331729212490362719154028359</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>8192700829377491</t>
+          <t>8192700829137491</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Left from departure country/region</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>420331729212490362719154028359</t>
+          <t>420331729212490362719154064883</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>8192700829137491</t>
+          <t>8192700829357491</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Leaving from departure country/region</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8192700829357491</t>
+          <t>8192700828867491</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>8192700828867491</t>
+          <t>8192700829097491</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>8192700829097491</t>
+          <t>8192700829537491</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8192700829537491</t>
+          <t>8192700829257491</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1176,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8192700829257491</t>
+          <t>8192700828907491</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Left from departure country/region sorting center</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>
@@ -1196,37 +1196,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LP00676885772985</t>
+          <t>420331729212490362719154073489</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8192700828907491</t>
+          <t>8192700828827491</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Received by consolidation warehouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>LP00676202608950</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>8192700828827491</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Received by consolidation warehouse</t>
+          <t>Customs clearance complete</t>
         </is>
       </c>
     </row>

--- a/orders_status.xlsx
+++ b/orders_status.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>order_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>tracking_number</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>order_id</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>420331729212490362719154073489</t>
+          <t>8198008051977491</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8192700828977491</t>
+          <t>CNUSUP00012930336</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Awaiting flight</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>420331729212490362719154073489</t>
+          <t>8198008051997491</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8192700829017491</t>
+          <t>BR000090924MG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Your package arrived at airport. Awaiting transit.</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>420331729212490362719154073489</t>
+          <t>8198008052017491</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8192700829237491</t>
+          <t>BR000090924MG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Your package arrived at airport. Awaiting transit.</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>8198008052037491</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8192700829477491</t>
+          <t>CNUSUP00012930336</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Awaiting flight</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>8198008052057491</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8192700829197491</t>
+          <t>CNUSUP00012930336</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Awaiting flight</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>8198008052077491</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8192700829317491</t>
+          <t>CNUSUP00012930336</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Awaiting flight</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>420331729212490362719154073489</t>
+          <t>8198008051937491</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8192700829297491</t>
+          <t>CNUSUP00012930336</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Awaiting flight</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>8198008052097491</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8192700829217491</t>
+          <t>CNUSUP00012930336</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Awaiting flight</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>420331729212490362719154064883</t>
+          <t>8198008051957491</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8192700829117491</t>
+          <t>CNUSUP00012930336</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Awaiting flight</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>420331729212490362719154073489</t>
+          <t>8197254807227491</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8192700829037491</t>
+          <t>BR000090924MG</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
+          <t>Your package arrived at airport. Awaiting transit.</t>
         </is>
       </c>
     </row>
@@ -656,557 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>420331729212490362719154073489</t>
+          <t>8198008052117491</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8192700829277491</t>
+          <t>BR000090924MG</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>420331729212490362719154064883</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>8192700829077491</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>8192700829457491</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>8192700829157491</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>8192700828997491</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>8192700829497491</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>8192700828847491</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>8192700829437491</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>420331729212490362719154064883</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>8192700828927491</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>420331729212490362719154064883</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>8192700828927491</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>420331729212490362719154064883</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>8192700829397491</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>8192700828957491</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>8192700829517491</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>420331729212490362719154064883</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>8192700829057491</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>420331729212490362719154064883</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>8192700829177491</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>420331729212490362719154064883</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>8192700829417491</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>8192700828807491</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>8192700829337491</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>8192700829377491</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>8192700829377491</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>420331729212490362719154028359</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>8192700829137491</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Left from departure country/region</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>420331729212490362719154064883</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>8192700829357491</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>420331729212490362719154064883</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>8192700828867491</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>420331729212490362719154064883</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>8192700829097491</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>420331729212490362719154064883</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>8192700829537491</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>420331729212490362719154064883</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>8192700829257491</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>8192700828907491</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>420331729212490362719154073489</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>8192700828827491</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Customs clearance complete</t>
+          <t>Your package arrived at airport. Awaiting transit.</t>
         </is>
       </c>
     </row>
